--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,14 +64,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,9 +112,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -146,7 +149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -358,15 +361,15 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
